--- a/infrastructure/Percent difference between the forecasted total generation available and the forecasted peak demand in the following year/DemandandEnergy2021.xlsx
+++ b/infrastructure/Percent difference between the forecasted total generation available and the forecasted peak demand in the following year/DemandandEnergy2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\jupyter\texas_2036\indicators\infrastructure\Percent difference between the forecasted total generation available and the forecasted peak demand in the following year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50CDF67-C514-434F-9888-E59DFE800A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59AEA2-46A3-4E99-ADBE-473FE5580556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -1317,14 +1317,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6472,7 +6472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N6"/>
     </sheetView>
   </sheetViews>
@@ -6580,7 +6580,7 @@
       <c r="N6" s="65"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="66" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="65"/>
@@ -7681,7 +7681,7 @@
       <c r="N44" s="65"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B45" s="65"/>
@@ -7699,7 +7699,7 @@
       <c r="N45" s="65"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="68" t="s">
         <v>136</v>
       </c>
       <c r="B46" s="65"/>
@@ -7718,11 +7718,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A26:N26"/>
     <mergeCell ref="A44:N44"/>
     <mergeCell ref="A45:N45"/>
     <mergeCell ref="A46:N46"/>
@@ -7731,6 +7726,11 @@
     <mergeCell ref="A36:N36"/>
     <mergeCell ref="A37:N37"/>
     <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7846,7 +7846,7 @@
       <c r="N6" s="65"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="66" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="65"/>
@@ -8654,7 +8654,7 @@
       <c r="N35" s="65"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="65"/>
@@ -8689,11 +8689,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A24:N24"/>
     <mergeCell ref="A35:N35"/>
     <mergeCell ref="A36:N36"/>
     <mergeCell ref="A37:N37"/>
@@ -8702,6 +8697,11 @@
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="A31:N31"/>
     <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9989,7 +9989,7 @@
       <c r="M54" s="65"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="65"/>
@@ -10006,7 +10006,7 @@
       <c r="M55" s="65"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="68" t="s">
         <v>136</v>
       </c>
       <c r="B56" s="65"/>
@@ -10024,21 +10024,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A42:M42"/>
     <mergeCell ref="A1:M6"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="A56:M56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11326,7 +11326,7 @@
       <c r="M54" s="65"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="65"/>
@@ -11343,7 +11343,7 @@
       <c r="M55" s="65"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="68" t="s">
         <v>136</v>
       </c>
       <c r="B56" s="65"/>
@@ -11376,22 +11376,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A42:M42"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A44:M44"/>
     <mergeCell ref="A54:M54"/>
     <mergeCell ref="A55:M55"/>
     <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A1:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12373,7 +12373,7 @@
       <c r="N38" s="65"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B39" s="65"/>
@@ -12480,11 +12480,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A23:N23"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="A42:N42"/>
     <mergeCell ref="A43:N43"/>
@@ -12494,6 +12489,11 @@
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A23:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13259,7 +13259,7 @@
       <c r="M41" s="65"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="65"/>
